--- a/Plancheck/plancheck_data/check_protocol/v19/STEC poumon RA.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/STEC poumon RA.xlsx
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
